--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A88C663-949C-474A-B6F6-E2ADA2A17CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E337707-374A-4889-977A-560115DFD373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OrangeHRM xPaths" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,12 +33,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HRM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Url: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,8 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +467,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1"/>
+  <dimension ref="E1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="5:15" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="E2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E337707-374A-4889-977A-560115DFD373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C37718-B319-4DDD-AA71-A8D15148425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -81,6 +81,9 @@
       </rPr>
       <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
     </r>
+  </si>
+  <si>
+    <t>xPaths</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="E1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,13 +504,23 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.3">
       <c r="F7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="E2:O2"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C37718-B319-4DDD-AA71-A8D15148425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9746CD64-7CEB-4BAF-BC79-7F4C13A950F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -85,12 +85,63 @@
   <si>
     <t>xPaths</t>
   </si>
+  <si>
+    <t>Locators</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>tagName</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>linktext</t>
+  </si>
+  <si>
+    <t>css selectors</t>
+  </si>
+  <si>
+    <t>partial linktext</t>
+  </si>
+  <si>
+    <t>//input[@name="username"]</t>
+  </si>
+  <si>
+    <t>//input[@name="password"]</t>
+  </si>
+  <si>
+    <t>//button[@type="submit"]</t>
+  </si>
+  <si>
+    <t>//button[@class="oxd-button oxd-button--medium oxd-button--main orangehrm-login-button"]</t>
+  </si>
+  <si>
+    <t>//p[text()="Forgot your password? "]</t>
+  </si>
+  <si>
+    <t>//p[@class='oxd-text oxd-text--p orangehrm-login-forgot-header']</t>
+  </si>
+  <si>
+    <t>//img[@alt='company-branding']</t>
+  </si>
+  <si>
+    <t>//div[@class='orangehrm-login-logo']//img[@alt='orangehrm-logo']</t>
+  </si>
+  <si>
+    <t>//a[text()='OrangeHRM, Inc']</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +177,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,15 +211,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,57 +540,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="E1:O7"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="5:15" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:11" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="4" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="F7" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="H4:L4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9746CD64-7CEB-4BAF-BC79-7F4C13A950F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B9C74-6FF1-40A0-9478-09E5CFE84F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -136,15 +136,46 @@
   <si>
     <t>//a[text()='OrangeHRM, Inc']</t>
   </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Username TextBox</t>
+  </si>
+  <si>
+    <t>User Password</t>
+  </si>
+  <si>
+    <t>Login Button</t>
+  </si>
+  <si>
+    <t>Forgot your password</t>
+  </si>
+  <si>
+    <t>OrangeHRM Image</t>
+  </si>
+  <si>
+    <t>OrangeHRM Image 2</t>
+  </si>
+  <si>
+    <t>OrangeHRM Link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,21 +242,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,15 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -626,52 +660,82 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B9C74-6FF1-40A0-9478-09E5CFE84F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A528489-904B-4E78-AD43-7F0E6E197436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -159,6 +159,30 @@
   </si>
   <si>
     <t>OrangeHRM Link</t>
+  </si>
+  <si>
+    <t>Login image title</t>
+  </si>
+  <si>
+    <t>//h5[@class='oxd-text oxd-text--h5 orangehrm-login-title']</t>
+  </si>
+  <si>
+    <t>//div[@class='orangehrm-login-footer-sm'and'_blank']</t>
+  </si>
+  <si>
+    <t>Social image link</t>
+  </si>
+  <si>
+    <t>//p[text()='Username : Admin']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>passward</t>
+  </si>
+  <si>
+    <t>//p[text()='Password : admin123']</t>
   </si>
 </sst>
 </file>
@@ -572,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,6 +763,38 @@
         <v>19</v>
       </c>
     </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A528489-904B-4E78-AD43-7F0E6E197436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F9C2C-0678-4F68-8666-1C31CDE43D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -183,6 +183,30 @@
   </si>
   <si>
     <t>//p[text()='Password : admin123']</t>
+  </si>
+  <si>
+    <t>After Login OrangeHRM Img</t>
+  </si>
+  <si>
+    <t>//img[@alt='client brand banner']</t>
+  </si>
+  <si>
+    <t>Drap down</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-chevron-left']</t>
+  </si>
+  <si>
+    <t>//p[@class='oxd-userdropdown-name']</t>
+  </si>
+  <si>
+    <t>Drap down_ Logout</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>//h6[text()='Dashboard']</t>
   </si>
 </sst>
 </file>
@@ -596,16 +620,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -795,6 +819,38 @@
         <v>35</v>
       </c>
     </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F9C2C-0678-4F68-8666-1C31CDE43D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E01C745-D1E2-4675-BED3-04DD5A77D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -207,6 +207,36 @@
   </si>
   <si>
     <t>//h6[text()='Dashboard']</t>
+  </si>
+  <si>
+    <t>Question mark</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-question-lg']</t>
+  </si>
+  <si>
+    <t>Profile picture</t>
+  </si>
+  <si>
+    <t>//span[@class='oxd-userdropdown-tab' and 'profile picture']</t>
+  </si>
+  <si>
+    <t>a c drapdown</t>
+  </si>
+  <si>
+    <t>//p[text()='a c']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userDrap down </t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-caret-down-fill oxd-userdropdown-icon']</t>
+  </si>
+  <si>
+    <t>iteam name</t>
+  </si>
+  <si>
+    <t>//span[text()='Recruitment']</t>
   </si>
 </sst>
 </file>
@@ -620,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,6 +881,46 @@
         <v>43</v>
       </c>
     </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E01C745-D1E2-4675-BED3-04DD5A77D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20F02D-3E97-4E75-9854-72E9F1F85085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -237,6 +237,30 @@
   </si>
   <si>
     <t>//span[text()='Recruitment']</t>
+  </si>
+  <si>
+    <t>Search Textbox</t>
+  </si>
+  <si>
+    <t>//input[@class='oxd-input oxd-input--active']</t>
+  </si>
+  <si>
+    <t>Main menu List</t>
+  </si>
+  <si>
+    <t>//ul[@class='oxd-main-menu']</t>
+  </si>
+  <si>
+    <t>Hole app Page</t>
+  </si>
+  <si>
+    <t>//div[@class='oxd-layout']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item name Buzz </t>
+  </si>
+  <si>
+    <t>//span[text()='Buzz']</t>
   </si>
 </sst>
 </file>
@@ -650,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,6 +945,38 @@
         <v>53</v>
       </c>
     </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A528489-904B-4E78-AD43-7F0E6E197436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20F02D-3E97-4E75-9854-72E9F1F85085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -183,6 +183,84 @@
   </si>
   <si>
     <t>//p[text()='Password : admin123']</t>
+  </si>
+  <si>
+    <t>After Login OrangeHRM Img</t>
+  </si>
+  <si>
+    <t>//img[@alt='client brand banner']</t>
+  </si>
+  <si>
+    <t>Drap down</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-chevron-left']</t>
+  </si>
+  <si>
+    <t>//p[@class='oxd-userdropdown-name']</t>
+  </si>
+  <si>
+    <t>Drap down_ Logout</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>//h6[text()='Dashboard']</t>
+  </si>
+  <si>
+    <t>Question mark</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-question-lg']</t>
+  </si>
+  <si>
+    <t>Profile picture</t>
+  </si>
+  <si>
+    <t>//span[@class='oxd-userdropdown-tab' and 'profile picture']</t>
+  </si>
+  <si>
+    <t>a c drapdown</t>
+  </si>
+  <si>
+    <t>//p[text()='a c']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userDrap down </t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-caret-down-fill oxd-userdropdown-icon']</t>
+  </si>
+  <si>
+    <t>iteam name</t>
+  </si>
+  <si>
+    <t>//span[text()='Recruitment']</t>
+  </si>
+  <si>
+    <t>Search Textbox</t>
+  </si>
+  <si>
+    <t>//input[@class='oxd-input oxd-input--active']</t>
+  </si>
+  <si>
+    <t>Main menu List</t>
+  </si>
+  <si>
+    <t>//ul[@class='oxd-main-menu']</t>
+  </si>
+  <si>
+    <t>Hole app Page</t>
+  </si>
+  <si>
+    <t>//div[@class='oxd-layout']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item name Buzz </t>
+  </si>
+  <si>
+    <t>//span[text()='Buzz']</t>
   </si>
 </sst>
 </file>
@@ -596,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="80.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -795,6 +873,110 @@
         <v>35</v>
       </c>
     </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20F02D-3E97-4E75-9854-72E9F1F85085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11848208-10DC-4214-8C81-745D2EDDDD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11848208-10DC-4214-8C81-745D2EDDDD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E07B3A-ECE9-4E93-BB19-64BB9F3E320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <r>
       <rPr>
@@ -262,12 +262,138 @@
   <si>
     <t>//span[text()='Buzz']</t>
   </si>
+  <si>
+    <t>//span[text()='Claim']</t>
+  </si>
+  <si>
+    <t>item name claim</t>
+  </si>
+  <si>
+    <t>//span[text()='Directory']</t>
+  </si>
+  <si>
+    <t>item name Directory</t>
+  </si>
+  <si>
+    <t>//span[text()='Performance']</t>
+  </si>
+  <si>
+    <t>item name Performance</t>
+  </si>
+  <si>
+    <t>//span[text()='My Info']</t>
+  </si>
+  <si>
+    <t>item name My Info</t>
+  </si>
+  <si>
+    <t>//span[text()='PIM']</t>
+  </si>
+  <si>
+    <t>Item name PIM</t>
+  </si>
+  <si>
+    <t>//span[text()='Admin']</t>
+  </si>
+  <si>
+    <t>Item name Admin</t>
+  </si>
+  <si>
+    <t>Item name Maintenance</t>
+  </si>
+  <si>
+    <t>//span[text()='Maintenance']</t>
+  </si>
+  <si>
+    <t>Tab-Time_atWork</t>
+  </si>
+  <si>
+    <t>//p[text()='Time at Work']</t>
+  </si>
+  <si>
+    <t>//p[text()='My Actions']</t>
+  </si>
+  <si>
+    <t>Tab-My_Action</t>
+  </si>
+  <si>
+    <t>//p[text()='Punched Out']</t>
+  </si>
+  <si>
+    <t>Tab-Punched_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>//span[@class='oxd-text oxd-text--span orangehrm-attendance-card-fulltime']</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-stopwatch']</t>
+  </si>
+  <si>
+    <t>Time watch icon link</t>
+  </si>
+  <si>
+    <t>Hrs zone</t>
+  </si>
+  <si>
+    <t>//p[text()='73h 0m ']</t>
+  </si>
+  <si>
+    <t>Time sheet to approve</t>
+  </si>
+  <si>
+    <t>//p[text()=' (5) Timesheets to Approve']</t>
+  </si>
+  <si>
+    <t>pending self review</t>
+  </si>
+  <si>
+    <t>//p[text()='(1) Pending Self Review']</t>
+  </si>
+  <si>
+    <t>candidate to inteview</t>
+  </si>
+  <si>
+    <t>//p[text()='(1) Candidate to Interview']</t>
+  </si>
+  <si>
+    <t>//div[@title='Assign Leave']</t>
+  </si>
+  <si>
+    <t>Assign leave</t>
+  </si>
+  <si>
+    <t>leave list</t>
+  </si>
+  <si>
+    <t>//button[@title='Leave List']</t>
+  </si>
+  <si>
+    <t>//button[@title='Apply Leave']</t>
+  </si>
+  <si>
+    <t>Apply leave</t>
+  </si>
+  <si>
+    <t>My Leave</t>
+  </si>
+  <si>
+    <t>//button[@title='My Leave']</t>
+  </si>
+  <si>
+    <t>//button[@title='My Timesheet']</t>
+  </si>
+  <si>
+    <t>My Time Sheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +443,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,22 +477,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,15 +826,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -716,13 +852,13 @@
       <c r="K2" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -739,7 +875,6 @@
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -762,10 +897,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -921,7 +1056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -929,7 +1064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>50</v>
       </c>
@@ -937,7 +1072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -945,7 +1080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>54</v>
       </c>
@@ -953,7 +1088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>56</v>
       </c>
@@ -961,7 +1096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>58</v>
       </c>
@@ -969,12 +1104,185 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E07B3A-ECE9-4E93-BB19-64BB9F3E320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E0505-5CB9-449D-B368-321926FD9938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <r>
       <rPr>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>My Time Sheet</t>
+  </si>
+  <si>
+    <t>xPath</t>
   </si>
 </sst>
 </file>
@@ -812,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,6 +900,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E0505-5CB9-449D-B368-321926FD9938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8264F98-E2D2-4E2A-85A2-7409C3B3079D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -390,6 +390,24 @@
   </si>
   <si>
     <t>xPath</t>
+  </si>
+  <si>
+    <t>//p[text()='Buzz Latest Posts']</t>
+  </si>
+  <si>
+    <t>Buzz Latest Posts</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-camera-fill orangehrm-dashboard-widget-icon']</t>
+  </si>
+  <si>
+    <t>camera fill</t>
+  </si>
+  <si>
+    <t>(//div[@class='orangehrm-buzz-widget-header-text'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buzz Latest Posts_PaulPaul </t>
   </si>
 </sst>
 </file>
@@ -813,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,6 +1309,30 @@
         <v>102</v>
       </c>
     </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8264F98-E2D2-4E2A-85A2-7409C3B3079D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639360A2-874F-4F31-A728-0D35053F505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <r>
       <rPr>
@@ -409,12 +409,138 @@
   <si>
     <t xml:space="preserve">buzz Latest Posts_PaulPaul </t>
   </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Url:- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.facebook.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>User Name Text box</t>
+  </si>
+  <si>
+    <t>//input[@id='email']</t>
+  </si>
+  <si>
+    <t>User passwordText box</t>
+  </si>
+  <si>
+    <t>//input[@id='pass']</t>
+  </si>
+  <si>
+    <t>//button[@id='u_0_5_OS']</t>
+  </si>
+  <si>
+    <t>//a[text()='Forgotten password?']</t>
+  </si>
+  <si>
+    <t>forgot Button</t>
+  </si>
+  <si>
+    <t>create New Account</t>
+  </si>
+  <si>
+    <t>//a[@id='u_0_0_Zx']</t>
+  </si>
+  <si>
+    <t>Create page link</t>
+  </si>
+  <si>
+    <t>//a[text()='Create a Page']</t>
+  </si>
+  <si>
+    <t>Hole Facebook page</t>
+  </si>
+  <si>
+    <t>//div[@class='_8esj _95k9 _8esf _8opv _8f3m _8ilg _8icx _8op_ _95ka']</t>
+  </si>
+  <si>
+    <t>Facebook Img icon</t>
+  </si>
+  <si>
+    <t>//img[@class='fb_logo _8ilh img']</t>
+  </si>
+  <si>
+    <t>//h2[text()='Facebook helps you connect and share with the people in your life.']</t>
+  </si>
+  <si>
+    <t>facebook header name</t>
+  </si>
+  <si>
+    <t>//div[@id='reg_pages_msg']</t>
+  </si>
+  <si>
+    <t>facebook msg page</t>
+  </si>
+  <si>
+    <t>//i[@class='img sp_EP9wX8qDDvu_1_5x sx_8c59a3']</t>
+  </si>
+  <si>
+    <t>plus icon click img</t>
+  </si>
+  <si>
+    <t>Whatsapp Web</t>
+  </si>
+  <si>
+    <t>Url: https://web.whatsapp.com/</t>
+  </si>
+  <si>
+    <t>Whatsapp img</t>
+  </si>
+  <si>
+    <t>//div[text()='WhatsApp Web']</t>
+  </si>
+  <si>
+    <t>//div[@class='landing-title _2K09Y']</t>
+  </si>
+  <si>
+    <t>Landing title name</t>
+  </si>
+  <si>
+    <t>list of whatsapp stpes</t>
+  </si>
+  <si>
+    <t>//ol[@class='_1G5cu']</t>
+  </si>
+  <si>
+    <t>QR Code</t>
+  </si>
+  <si>
+    <t>//div[@class='_19vUU']</t>
+  </si>
+  <si>
+    <t>//span[@class='W3myC']</t>
+  </si>
+  <si>
+    <t>In side qr code img</t>
+  </si>
+  <si>
+    <t>Link with phone numbers</t>
+  </si>
+  <si>
+    <t>//span[@role='button']</t>
+  </si>
+  <si>
+    <t>//span[text()='Link with phone number']</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +597,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -498,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +657,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,6 +1480,168 @@
         <v>109</v>
       </c>
     </row>
+    <row r="68" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A68" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639360A2-874F-4F31-A728-0D35053F505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4DCF2C-4720-433F-A5D5-B6B67FFF3855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4DCF2C-4720-433F-A5D5-B6B67FFF3855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DF4B1-B2B7-4D2E-9EC5-9F778B120280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +663,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,7 +1641,7 @@
       <c r="B91" t="s">
         <v>146</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="11" t="s">
         <v>148</v>
       </c>
     </row>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DF4B1-B2B7-4D2E-9EC5-9F778B120280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCCD8A1-EA2A-4742-85A3-60924775C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
   <si>
     <r>
       <rPr>
@@ -535,12 +535,135 @@
   <si>
     <t>//span[text()='Link with phone number']</t>
   </si>
+  <si>
+    <t>APSRTC</t>
+  </si>
+  <si>
+    <t>//input[@id='fromPlaceName']</t>
+  </si>
+  <si>
+    <t>to text box</t>
+  </si>
+  <si>
+    <t>//input[@id='toPlaceName']</t>
+  </si>
+  <si>
+    <t>//input[@id='txtJourneyDate']</t>
+  </si>
+  <si>
+    <t>depart on date</t>
+  </si>
+  <si>
+    <t>for roundtrip</t>
+  </si>
+  <si>
+    <t>//input[@id='txtReturnJourneyDate']</t>
+  </si>
+  <si>
+    <t>//input[@type='button']</t>
+  </si>
+  <si>
+    <t>check avilability button</t>
+  </si>
+  <si>
+    <t>//span[@class='twowaychang']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chenge drication button</t>
+  </si>
+  <si>
+    <t>//h2[text()='Popular Routes']</t>
+  </si>
+  <si>
+    <t>roade header list</t>
+  </si>
+  <si>
+    <t>//div[@id='home-bot']</t>
+  </si>
+  <si>
+    <t>Root map list</t>
+  </si>
+  <si>
+    <t>booking page</t>
+  </si>
+  <si>
+    <t>//div[@id='booking']</t>
+  </si>
+  <si>
+    <t>//a[@title='Home']</t>
+  </si>
+  <si>
+    <t>Home title page</t>
+  </si>
+  <si>
+    <t>//a[@title='Ticket Status']</t>
+  </si>
+  <si>
+    <t>Ticket_Status page</t>
+  </si>
+  <si>
+    <t>//a[@title='Cancel Ticket']</t>
+  </si>
+  <si>
+    <t>cancel ticket page</t>
+  </si>
+  <si>
+    <t>//a[@title='Track Service']</t>
+  </si>
+  <si>
+    <t>//a[@title='Gallery']</t>
+  </si>
+  <si>
+    <t>Gallery page</t>
+  </si>
+  <si>
+    <t>Track service page</t>
+  </si>
+  <si>
+    <t>//a[text()='Wallet']</t>
+  </si>
+  <si>
+    <t>wallet page</t>
+  </si>
+  <si>
+    <t>//a[text()='TimeTable / Track']</t>
+  </si>
+  <si>
+    <t>TimeTable/Track Page</t>
+  </si>
+  <si>
+    <t>//a[text()='Door to Door Online Parcel Booking']</t>
+  </si>
+  <si>
+    <t>Blinking cursor</t>
+  </si>
+  <si>
+    <t>//div[@id='slider']</t>
+  </si>
+  <si>
+    <t>slider change page</t>
+  </si>
+  <si>
+    <t>//div[@class='phone']</t>
+  </si>
+  <si>
+    <t>phone icon img</t>
+  </si>
+  <si>
+    <t>//span[text()='(24/7 Customer Support)']</t>
+  </si>
+  <si>
+    <t>customer support</t>
+  </si>
+  <si>
+    <t>from text box+B95B95:B114</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +734,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -638,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,6 +796,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,6 +1778,171 @@
         <v>148</v>
       </c>
     </row>
+    <row r="94" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A94" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCCD8A1-EA2A-4742-85A3-60924775C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3F732-E480-4D43-98B7-AAF78573CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3F732-E480-4D43-98B7-AAF78573CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B56BE-6CE9-4B58-B8D1-A15E5AEEBCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="194">
   <si>
     <r>
       <rPr>
@@ -657,6 +657,18 @@
   </si>
   <si>
     <t>from text box+B95B95:B114</t>
+  </si>
+  <si>
+    <t>//a[text()='eTicket Login']</t>
+  </si>
+  <si>
+    <t>eTicket Login</t>
+  </si>
+  <si>
+    <t>//a[text()='ATB/OPR Login']</t>
+  </si>
+  <si>
+    <t>ATB/OPR Login</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1943,6 +1955,22 @@
         <v>187</v>
       </c>
     </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B56BE-6CE9-4B58-B8D1-A15E5AEEBCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FFD43-2CE3-451B-889B-93F7A94775DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="209">
   <si>
     <r>
       <rPr>
@@ -670,12 +670,79 @@
   <si>
     <t>ATB/OPR Login</t>
   </si>
+  <si>
+    <t>//span[@id='4']</t>
+  </si>
+  <si>
+    <t>Search text box</t>
+  </si>
+  <si>
+    <r>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> My</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show</t>
+    </r>
+  </si>
+  <si>
+    <t>//span[@class='sc-bOQTJJ jrSMJV ellipsis']</t>
+  </si>
+  <si>
+    <t>Tab Button</t>
+  </si>
+  <si>
+    <t>sign in button</t>
+  </si>
+  <si>
+    <t>//div[text()='Sign in']</t>
+  </si>
+  <si>
+    <t>Menu button</t>
+  </si>
+  <si>
+    <t>//div[@class='sc-hoLEA cHmvZI']</t>
+  </si>
+  <si>
+    <t>//div[@class='sc-hgRRfv eKutSi']//div[@class='sc-kUdmhA bXPpHA']</t>
+  </si>
+  <si>
+    <t>//div[@class='sc-emIrwa cicuBn']//div[@class='sc-kUdmhA bXPpHA']</t>
+  </si>
+  <si>
+    <t>navigation bar1</t>
+  </si>
+  <si>
+    <t>navigation bar2</t>
+  </si>
+  <si>
+    <t>//div[@id='super-container']</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +820,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -792,9 +873,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,7 +880,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,6 +887,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,13 +1251,13 @@
       <c r="K2" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1432,7 +1515,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>45134</v>
       </c>
     </row>
@@ -1592,7 +1675,7 @@
       <c r="B60" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1629,7 +1712,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1722,12 +1805,12 @@
       <c r="B80" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1786,12 +1869,12 @@
       <c r="B91" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="10" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1823,7 +1906,7 @@
       <c r="B98" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1863,7 +1946,7 @@
       <c r="B103" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1939,7 +2022,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>186</v>
       </c>
@@ -1947,7 +2030,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>188</v>
       </c>
@@ -1955,7 +2038,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>191</v>
       </c>
@@ -1963,12 +2046,78 @@
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>193</v>
       </c>
       <c r="C116" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/xpathfile.xlsx
+++ b/xpathfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repo\Repo_NMShaik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FFD43-2CE3-451B-889B-93F7A94775DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F79C3B-9BA1-4044-8387-54A48DB74099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC7A059E-AD93-40B2-A7CA-9E54B4977BE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="211">
   <si>
     <r>
       <rPr>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>application</t>
+  </si>
+  <si>
+    <t>//div[@class='oxd-grid-item oxd-grid-item--gutters']//input[@class='oxd-input oxd-input--active']</t>
+  </si>
+  <si>
+    <t>Admin Tab</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA881F-8125-411C-956E-2ADD5A48D978}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,412 +1717,433 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A68" s="7" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A74" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>135</v>
-      </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>139</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C92" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>140</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>142</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C94" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A94" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A100" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>151</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C102" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
         <v>154</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>155</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C104" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
         <v>158</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C105" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
         <v>160</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>162</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>164</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C108" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C109" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>168</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C110" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
         <v>170</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C111" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>172</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C112" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>176</v>
-      </c>
-      <c r="C107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>175</v>
-      </c>
-      <c r="C108" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>178</v>
-      </c>
-      <c r="C109" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
-        <v>45135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A120" s="12" t="s">
-        <v>196</v>
+      <c r="B118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>199</v>
-      </c>
-      <c r="C123" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>205</v>
-      </c>
-      <c r="C125" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>206</v>
-      </c>
-      <c r="C126" t="s">
-        <v>204</v>
+      <c r="A124" s="5">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
         <v>208</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C133" t="s">
         <v>207</v>
       </c>
     </row>
